--- a/refs/heads/main/who-ddcc-map-icd11-icd10-disease-targeted.xlsx
+++ b/refs/heads/main/who-ddcc-map-icd11-icd10-disease-targeted.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://worldhealthorganization.github.io/ddcc/ConceptMap/who-ddcc-map-icd11-icd10-disease-targeted</t>
+    <t>http://worldhealthorganization.github.io/ddcc/ConceptMap/WHO_DDCC_Map_ICD11_to_ICD10_Disease_Targeted</t>
   </si>
   <si>
     <t>Version</t>

--- a/refs/heads/main/who-ddcc-map-icd11-icd10-disease-targeted.xlsx
+++ b/refs/heads/main/who-ddcc-map-icd11-icd10-disease-targeted.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>0.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -66,13 +66,19 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>World Health Organization (WHO)</t>
+    <t>WHO</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
@@ -248,7 +254,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -350,21 +356,21 @@
       <c r="A12" t="s" s="2">
         <v>22</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>23</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>25</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -372,6 +378,14 @@
       </c>
       <c r="B15" t="s" s="2">
         <v>27</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -389,48 +403,48 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>31</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>28</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>26</v>
-      </c>
       <c r="E1" t="s" s="1">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E3" s="2"/>
     </row>

--- a/refs/heads/main/who-ddcc-map-icd11-icd10-disease-targeted.xlsx
+++ b/refs/heads/main/who-ddcc-map-icd11-icd10-disease-targeted.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
